--- a/XL.xlsx
+++ b/XL.xlsx
@@ -90,6 +90,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,18 +113,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -192,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,10 +235,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -320,20 +320,20 @@
       <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="964" style="0" width="11.52"/>
   </cols>
@@ -628,7 +628,7 @@
       <c r="M6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="10" t="n">
+      <c r="N6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="9" t="n">
